--- a/biology/Médecine/Assemblée_mondiale_de_la_santé/Assemblée_mondiale_de_la_santé.xlsx
+++ b/biology/Médecine/Assemblée_mondiale_de_la_santé/Assemblée_mondiale_de_la_santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Assembl%C3%A9e_mondiale_de_la_sant%C3%A9</t>
+          <t>Assemblée_mondiale_de_la_santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Assemblée mondiale de la santé (AMS), en anglais World Health Assembly (WHA), est un forum de discussion à travers lequel l'Organisation mondiale de la santé (OMS) est gouverné par ses 194 États membres.
-Les membres de l'Assemblée mondiale de la santé se rencontrent généralement et annuellement au mois de mai à Genève (Suisse), lieu dans lequel siège l'OMS. La principale fonction de l'organisation est de déterminer les politiques et d'améliorer ses programmes[1].
-La première assemblée mondiale de la santé a été organisée en 1948 et elle ne comptait que 55 États membres[2]. L'AMS possède actuellement 194 États membres[3].
-La soixante-dixième Assemblée mondiale de la santé, en mai 2018, est marqué par la nomination de Tedros Adhanom Ghebreyesus au poste de directeur général de l'OMS[4].
+Les membres de l'Assemblée mondiale de la santé se rencontrent généralement et annuellement au mois de mai à Genève (Suisse), lieu dans lequel siège l'OMS. La principale fonction de l'organisation est de déterminer les politiques et d'améliorer ses programmes.
+La première assemblée mondiale de la santé a été organisée en 1948 et elle ne comptait que 55 États membres. L'AMS possède actuellement 194 États membres.
+La soixante-dixième Assemblée mondiale de la santé, en mai 2018, est marqué par la nomination de Tedros Adhanom Ghebreyesus au poste de directeur général de l'OMS.
 </t>
         </is>
       </c>
